--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Khaulia Gabtola 0.00 U-S  End Termination 1.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Protective Work Estimate Pangusi DPP/Khaulia Gabtola 0.00 U-S  End Termination 1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12120" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EARTH CALCULATION" sheetId="1" r:id="rId1"/>
     <sheet name="ABSTRACT" sheetId="2" r:id="rId2"/>
     <sheet name="DETAILED" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2439,7 +2439,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2532,7 +2532,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-48B9-473D-8C14-8F8E07AF0F39}"/>
             </c:ext>
@@ -2572,7 +2572,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-48B9-473D-8C14-8F8E07AF0F39}"/>
             </c:ext>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2712,7 +2712,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2A5-44C3-AB9B-6FBD1C4A3F85}"/>
             </c:ext>
@@ -2764,7 +2764,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D2A5-44C3-AB9B-6FBD1C4A3F85}"/>
             </c:ext>
@@ -2848,7 +2848,7 @@
         <xdr:cNvPr id="10" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="11" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3104,7 @@
         <xdr:cNvPr id="12" name="Text Box 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3237,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3273,7 @@
         <xdr:cNvPr id="21" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +3418,7 @@
         <xdr:cNvPr id="22" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3553,7 @@
         <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3594,7 +3594,7 @@
         <xdr:cNvPr id="5" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,7 +3737,7 @@
         <xdr:cNvPr id="6" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3890,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4031,7 +4031,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4168,7 +4168,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4336,7 +4336,7 @@
         <xdr:cNvPr id="2" name="Text Box 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4484,7 +4484,7 @@
         <xdr:cNvPr id="3" name="Text Box 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4874,24 +4874,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5932,7 +5932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5964,21 +5964,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="2"/>
-    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2"/>
+    <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6221,7 +6221,7 @@
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>157</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1586171.1573236247</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>66</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>32370.340505519998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="290" t="s">
         <v>21</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>83520117.399574772</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
@@ -6554,7 +6554,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="45"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
@@ -6562,7 +6562,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="45"/>
     </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
@@ -6570,7 +6570,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="45"/>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6578,7 +6578,7 @@
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -6586,7 +6586,7 @@
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -6594,7 +6594,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6602,7 +6602,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6610,7 +6610,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -6618,7 +6618,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -6626,7 +6626,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
@@ -6634,7 +6634,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="45"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
@@ -6643,7 +6643,7 @@
       <c r="F43" s="45"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="42"/>
       <c r="C44" s="43"/>
@@ -6654,7 +6654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="42"/>
       <c r="C45" s="43"/>
@@ -6662,7 +6662,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="45"/>
     </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="42"/>
       <c r="C46" s="43"/>
@@ -6670,7 +6670,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="45"/>
     </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="42"/>
       <c r="C47" s="43"/>
@@ -6678,7 +6678,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="45"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="42"/>
       <c r="C48" s="43"/>
@@ -6686,7 +6686,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="45"/>
     </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="42"/>
       <c r="C49" s="43"/>
@@ -6694,7 +6694,7 @@
       <c r="E49" s="41"/>
       <c r="F49" s="45"/>
     </row>
-    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="42"/>
       <c r="C50" s="43"/>
@@ -6712,7 +6712,7 @@
       <c r="E77" s="289"/>
       <c r="F77" s="289"/>
     </row>
-    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
         <v>7</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>83799.705000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>30</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>12241.0134</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="192" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A87" s="66" t="s">
         <v>40</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>117909</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="290" t="s">
         <v>21</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>1102307.0183999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="42"/>
       <c r="C89" s="43"/>
@@ -6941,7 +6941,7 @@
       <c r="E89" s="41"/>
       <c r="F89" s="45"/>
     </row>
-    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="42"/>
       <c r="C90" s="43"/>
@@ -6949,7 +6949,7 @@
       <c r="E90" s="41"/>
       <c r="F90" s="45"/>
     </row>
-    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="42"/>
       <c r="C91" s="43"/>
@@ -6957,7 +6957,7 @@
       <c r="E91" s="41"/>
       <c r="F91" s="45"/>
     </row>
-    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="42"/>
       <c r="C92" s="43"/>
@@ -6965,7 +6965,7 @@
       <c r="E92" s="41"/>
       <c r="F92" s="45"/>
     </row>
-    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="42"/>
       <c r="C93" s="43"/>
@@ -6973,7 +6973,7 @@
       <c r="E93" s="41"/>
       <c r="F93" s="45"/>
     </row>
-    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="42"/>
       <c r="C94" s="43"/>
@@ -6981,7 +6981,7 @@
       <c r="E94" s="41"/>
       <c r="F94" s="45"/>
     </row>
-    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="42"/>
       <c r="C95" s="43"/>
@@ -6989,7 +6989,7 @@
       <c r="E95" s="41"/>
       <c r="F95" s="45"/>
     </row>
-    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="42"/>
       <c r="C96" s="43"/>
@@ -6997,7 +6997,7 @@
       <c r="E96" s="41"/>
       <c r="F96" s="45"/>
     </row>
-    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="42"/>
       <c r="C97" s="43"/>
@@ -7005,7 +7005,7 @@
       <c r="E97" s="41"/>
       <c r="F97" s="45"/>
     </row>
-    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="42"/>
       <c r="C98" s="43"/>
@@ -7030,26 +7030,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171:B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="1.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="330" t="s">
         <v>154</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="K1" s="332"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="K2" s="334"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="339" t="s">
         <v>42</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="J4" s="85"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="340"/>
       <c r="B5" s="321"/>
       <c r="C5" s="347"/>
@@ -7140,7 +7140,7 @@
       <c r="J5" s="87"/>
       <c r="K5" s="83"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="340"/>
       <c r="B6" s="321"/>
       <c r="C6" s="343" t="s">
@@ -7155,7 +7155,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="83"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="340"/>
       <c r="B7" s="321"/>
       <c r="C7" s="190">
@@ -7186,7 +7186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="339" t="s">
         <v>101</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="83"/>
     </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="340"/>
       <c r="B9" s="342"/>
       <c r="C9" s="343" t="s">
@@ -7227,7 +7227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="340"/>
       <c r="B10" s="342"/>
       <c r="C10" s="188"/>
@@ -7240,7 +7240,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="83"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="340"/>
       <c r="B11" s="342"/>
       <c r="C11" s="188"/>
@@ -7253,7 +7253,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="83"/>
     </row>
-    <row r="12" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="180" t="s">
         <v>138</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="J12" s="81"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
       <c r="B13" s="342"/>
       <c r="C13" s="300" t="s">
@@ -7290,7 +7290,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="83"/>
     </row>
-    <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
       <c r="B14" s="342"/>
       <c r="C14" s="300" t="s">
@@ -7307,7 +7307,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="83"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="101"/>
       <c r="B15" s="342"/>
       <c r="C15" s="50"/>
@@ -7325,7 +7325,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="83"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="101"/>
       <c r="B16" s="342"/>
       <c r="C16" s="300" t="s">
@@ -7345,7 +7345,7 @@
       <c r="J16" s="50"/>
       <c r="K16" s="83"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="101"/>
       <c r="B17" s="342"/>
       <c r="C17" s="300" t="s">
@@ -7362,7 +7362,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="83"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="101"/>
       <c r="B18" s="342"/>
       <c r="C18" s="51"/>
@@ -7380,7 +7380,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="83"/>
     </row>
-    <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
       <c r="B19" s="342"/>
       <c r="C19" s="293" t="s">
@@ -7400,7 +7400,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="83"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="101"/>
       <c r="B20" s="342"/>
       <c r="C20" s="50"/>
@@ -7413,7 +7413,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="83"/>
     </row>
-    <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
         <v>48</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="83"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="23"/>
       <c r="C22" s="51">
@@ -7449,7 +7449,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="83"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="23"/>
       <c r="C23" s="51">
@@ -7477,7 +7477,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="83"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="23"/>
       <c r="C24" s="51" t="s">
@@ -7499,7 +7499,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="83"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="23"/>
       <c r="C25" s="51"/>
@@ -7512,7 +7512,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="83"/>
     </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="23"/>
       <c r="C26" s="302" t="s">
@@ -7532,7 +7532,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="83"/>
     </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="182"/>
       <c r="B27" s="23"/>
       <c r="C27" s="302" t="s">
@@ -7552,7 +7552,7 @@
       <c r="J27" s="104"/>
       <c r="K27" s="105"/>
     </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="182"/>
       <c r="B28" s="23"/>
       <c r="C28" s="184"/>
@@ -7565,7 +7565,7 @@
       <c r="J28" s="50"/>
       <c r="K28" s="83"/>
     </row>
-    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="269"/>
       <c r="B29" s="270"/>
       <c r="C29" s="326" t="s">
@@ -7589,7 +7589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>56</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="J30" s="50"/>
       <c r="K30" s="83"/>
     </row>
-    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="97"/>
       <c r="C31" s="51">
@@ -7639,7 +7639,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="83"/>
     </row>
-    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="97"/>
       <c r="C32" s="51" t="s">
@@ -7661,7 +7661,7 @@
       <c r="J32" s="50"/>
       <c r="K32" s="83"/>
     </row>
-    <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="97"/>
       <c r="C33" s="302" t="s">
@@ -7681,7 +7681,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="83"/>
     </row>
-    <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="97"/>
       <c r="C34" s="302" t="s">
@@ -7701,7 +7701,7 @@
       <c r="J34" s="50"/>
       <c r="K34" s="83"/>
     </row>
-    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="97"/>
       <c r="C35" s="212"/>
@@ -7714,7 +7714,7 @@
       <c r="J35" s="104"/>
       <c r="K35" s="105"/>
     </row>
-    <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="97"/>
       <c r="C36" s="259" t="s">
@@ -7736,7 +7736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="102" t="s">
         <v>114</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="J37" s="104"/>
       <c r="K37" s="105"/>
     </row>
-    <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="97"/>
       <c r="C38" s="69" t="s">
@@ -7775,7 +7775,7 @@
       <c r="J38" s="104"/>
       <c r="K38" s="105"/>
     </row>
-    <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="97"/>
       <c r="C39" s="69" t="s">
@@ -7794,7 +7794,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="105"/>
     </row>
-    <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="97"/>
       <c r="C40" s="69"/>
@@ -7812,7 +7812,7 @@
       <c r="J40" s="104"/>
       <c r="K40" s="105"/>
     </row>
-    <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="97"/>
       <c r="C41" s="293" t="s">
@@ -7829,7 +7829,7 @@
       <c r="J41" s="104"/>
       <c r="K41" s="105"/>
     </row>
-    <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="97"/>
       <c r="C42" s="255"/>
@@ -7847,7 +7847,7 @@
       <c r="J42" s="104"/>
       <c r="K42" s="105"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="97"/>
       <c r="C43" s="293" t="s">
@@ -7864,7 +7864,7 @@
       <c r="J43" s="104"/>
       <c r="K43" s="105"/>
     </row>
-    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="97"/>
       <c r="C44" s="255"/>
@@ -7882,7 +7882,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="105"/>
     </row>
-    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="97"/>
       <c r="C45" s="293" t="s">
@@ -7902,7 +7902,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="105"/>
     </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="97"/>
       <c r="C46" s="69" t="s">
@@ -7917,7 +7917,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="105"/>
     </row>
-    <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="97"/>
       <c r="C47" s="69">
@@ -7945,7 +7945,7 @@
       <c r="J47" s="104"/>
       <c r="K47" s="105"/>
     </row>
-    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="97"/>
       <c r="C48" s="293" t="s">
@@ -7967,7 +7967,7 @@
       <c r="J48" s="104"/>
       <c r="K48" s="105"/>
     </row>
-    <row r="49" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="97"/>
       <c r="C49" s="302" t="s">
@@ -7987,7 +7987,7 @@
       <c r="J49" s="104"/>
       <c r="K49" s="105"/>
     </row>
-    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="97"/>
       <c r="C50" s="293" t="s">
@@ -8002,7 +8002,7 @@
       <c r="J50" s="104"/>
       <c r="K50" s="105"/>
     </row>
-    <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="97"/>
       <c r="C51" s="197">
@@ -8028,7 +8028,7 @@
       <c r="J51" s="104"/>
       <c r="K51" s="105"/>
     </row>
-    <row r="52" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="97"/>
       <c r="C52" s="302"/>
@@ -8041,7 +8041,7 @@
       <c r="J52" s="104"/>
       <c r="K52" s="105"/>
     </row>
-    <row r="53" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="97"/>
       <c r="C53" s="302" t="s">
@@ -8065,7 +8065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="180" t="s">
         <v>139</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="J54" s="49"/>
       <c r="K54" s="82"/>
     </row>
-    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101"/>
       <c r="B55" s="321"/>
       <c r="C55" s="321"/>
@@ -8095,7 +8095,7 @@
       <c r="J55" s="47"/>
       <c r="K55" s="83"/>
     </row>
-    <row r="56" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101"/>
       <c r="B56" s="321"/>
       <c r="C56" s="129"/>
@@ -8108,7 +8108,7 @@
       <c r="J56" s="47"/>
       <c r="K56" s="83"/>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="321"/>
       <c r="C57" s="129"/>
@@ -8121,7 +8121,7 @@
       <c r="J57" s="47"/>
       <c r="K57" s="83"/>
     </row>
-    <row r="58" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="261" t="s">
         <v>61</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="J58" s="47"/>
       <c r="K58" s="83"/>
     </row>
-    <row r="59" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74"/>
       <c r="B59" s="113"/>
       <c r="C59" s="308" t="s">
@@ -8170,7 +8170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74"/>
       <c r="B60" s="113"/>
       <c r="C60" s="130"/>
@@ -8188,7 +8188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="111"/>
       <c r="B61" s="114"/>
       <c r="C61" s="312" t="s">
@@ -8215,7 +8215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101" t="s">
         <v>64</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="J62" s="132"/>
       <c r="K62" s="106"/>
     </row>
-    <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="97"/>
       <c r="C63" s="69"/>
@@ -8259,7 +8259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="252" t="s">
         <v>156</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="J64" s="85"/>
       <c r="K64" s="82"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="74"/>
       <c r="B65" s="321"/>
       <c r="C65" s="321"/>
@@ -8289,7 +8289,7 @@
       <c r="J65" s="87"/>
       <c r="K65" s="83"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="74"/>
       <c r="B66" s="321"/>
       <c r="C66" s="129"/>
@@ -8302,7 +8302,7 @@
       <c r="J66" s="87"/>
       <c r="K66" s="83"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="74"/>
       <c r="B67" s="321"/>
       <c r="C67" s="135"/>
@@ -8315,7 +8315,7 @@
       <c r="J67" s="87"/>
       <c r="K67" s="83"/>
     </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="74"/>
       <c r="B68" s="321"/>
       <c r="C68" s="135"/>
@@ -8328,7 +8328,7 @@
       <c r="J68" s="87"/>
       <c r="K68" s="83"/>
     </row>
-    <row r="69" spans="1:11" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="74"/>
       <c r="B69" s="321"/>
       <c r="C69" s="135"/>
@@ -8341,7 +8341,7 @@
       <c r="J69" s="87"/>
       <c r="K69" s="83"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="74"/>
       <c r="B70" s="113"/>
       <c r="C70" s="312" t="s">
@@ -8356,7 +8356,7 @@
       <c r="J70" s="87"/>
       <c r="K70" s="83"/>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="74"/>
       <c r="B71" s="113"/>
       <c r="C71" s="308" t="s">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="K71" s="83"/>
     </row>
-    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="74"/>
       <c r="B72" s="113"/>
       <c r="C72" s="308" t="s">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="K72" s="83"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="74" t="s">
         <v>157</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="111"/>
       <c r="B74" s="114"/>
       <c r="C74" s="310" t="s">
@@ -8460,7 +8460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="74" t="s">
         <v>66</v>
       </c>
@@ -8477,7 +8477,7 @@
       <c r="J75" s="87"/>
       <c r="K75" s="83"/>
     </row>
-    <row r="76" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="74"/>
       <c r="B76" s="113"/>
       <c r="C76" s="312" t="s">
@@ -8504,7 +8504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A77" s="137" t="s">
         <v>140</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="J77" s="81"/>
       <c r="K77" s="82"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="64"/>
       <c r="B78" s="317"/>
       <c r="C78" s="300" t="s">
@@ -8541,7 +8541,7 @@
       <c r="J78" s="50"/>
       <c r="K78" s="83"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="B79" s="317"/>
       <c r="C79" s="300" t="s">
@@ -8558,7 +8558,7 @@
       <c r="J79" s="50"/>
       <c r="K79" s="83"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="64"/>
       <c r="B80" s="317"/>
       <c r="C80" s="50"/>
@@ -8576,7 +8576,7 @@
       <c r="J80" s="50"/>
       <c r="K80" s="83"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="64"/>
       <c r="B81" s="317"/>
       <c r="C81" s="300" t="s">
@@ -8596,7 +8596,7 @@
       <c r="J81" s="50"/>
       <c r="K81" s="83"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="64"/>
       <c r="B82" s="317"/>
       <c r="C82" s="300" t="s">
@@ -8613,7 +8613,7 @@
       <c r="J82" s="50"/>
       <c r="K82" s="83"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="64"/>
       <c r="B83" s="317"/>
       <c r="C83" s="51"/>
@@ -8631,7 +8631,7 @@
       <c r="J83" s="50"/>
       <c r="K83" s="83"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="64"/>
       <c r="B84" s="317"/>
       <c r="C84" s="293" t="s">
@@ -8651,7 +8651,7 @@
       <c r="J84" s="50"/>
       <c r="K84" s="83"/>
     </row>
-    <row r="85" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="317"/>
       <c r="C85" s="51"/>
@@ -8664,7 +8664,7 @@
       <c r="J85" s="50"/>
       <c r="K85" s="83"/>
     </row>
-    <row r="86" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>117</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="J86" s="50"/>
       <c r="K86" s="83"/>
     </row>
-    <row r="87" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="64"/>
       <c r="B87" s="72"/>
       <c r="C87" s="51">
@@ -8698,7 +8698,7 @@
       <c r="J87" s="50"/>
       <c r="K87" s="83"/>
     </row>
-    <row r="88" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
       <c r="B88" s="72"/>
       <c r="C88" s="51">
@@ -8726,7 +8726,7 @@
       <c r="J88" s="50"/>
       <c r="K88" s="83"/>
     </row>
-    <row r="89" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="218"/>
       <c r="C89" s="51"/>
@@ -8739,7 +8739,7 @@
       <c r="J89" s="50"/>
       <c r="K89" s="83"/>
     </row>
-    <row r="90" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="64"/>
       <c r="B90" s="218"/>
       <c r="C90" s="51" t="s">
@@ -8761,7 +8761,7 @@
       <c r="J90" s="50"/>
       <c r="K90" s="83"/>
     </row>
-    <row r="91" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
       <c r="B91" s="72"/>
       <c r="C91" s="51"/>
@@ -8774,7 +8774,7 @@
       <c r="J91" s="50"/>
       <c r="K91" s="83"/>
     </row>
-    <row r="92" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="64"/>
       <c r="B92" s="72"/>
       <c r="C92" s="302" t="s">
@@ -8793,7 +8793,7 @@
       <c r="J92" s="50"/>
       <c r="K92" s="83"/>
     </row>
-    <row r="93" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="249"/>
       <c r="B93" s="276"/>
       <c r="C93" s="259"/>
@@ -8817,7 +8817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="323" t="s">
         <v>141</v>
       </c>
@@ -8834,7 +8834,7 @@
       <c r="J94" s="50"/>
       <c r="K94" s="83"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="323"/>
       <c r="B95" s="317"/>
       <c r="C95" s="302"/>
@@ -8847,7 +8847,7 @@
       <c r="J95" s="50"/>
       <c r="K95" s="83"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="323"/>
       <c r="B96" s="317"/>
       <c r="C96" s="302"/>
@@ -8860,7 +8860,7 @@
       <c r="J96" s="50"/>
       <c r="K96" s="83"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="64"/>
       <c r="B97" s="317"/>
       <c r="C97" s="293"/>
@@ -8873,7 +8873,7 @@
       <c r="J97" s="50"/>
       <c r="K97" s="83"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="64"/>
       <c r="B98" s="317"/>
       <c r="C98" s="107"/>
@@ -8886,7 +8886,7 @@
       <c r="J98" s="50"/>
       <c r="K98" s="83"/>
     </row>
-    <row r="99" spans="1:15" ht="291" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="278"/>
       <c r="B99" s="317"/>
       <c r="C99" s="107"/>
@@ -8899,7 +8899,7 @@
       <c r="J99" s="50"/>
       <c r="K99" s="83"/>
     </row>
-    <row r="100" spans="1:15" ht="48" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="48" x14ac:dyDescent="0.25">
       <c r="A100" s="167" t="s">
         <v>121</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="J100" s="205"/>
       <c r="K100" s="83"/>
     </row>
-    <row r="101" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="322" t="s">
         <v>142</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="J101" s="85"/>
       <c r="K101" s="108"/>
     </row>
-    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="323"/>
       <c r="B102" s="321"/>
       <c r="C102" s="302"/>
@@ -8953,7 +8953,7 @@
       <c r="J102" s="87"/>
       <c r="K102" s="151"/>
     </row>
-    <row r="103" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="323"/>
       <c r="B103" s="321"/>
       <c r="C103" s="242" t="s">
@@ -8973,7 +8973,7 @@
       <c r="J103" s="87"/>
       <c r="K103" s="151"/>
     </row>
-    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="323"/>
       <c r="B104" s="321"/>
       <c r="C104" s="242" t="s">
@@ -8992,7 +8992,7 @@
       <c r="J104" s="87"/>
       <c r="K104" s="151"/>
     </row>
-    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="323"/>
       <c r="B105" s="321"/>
       <c r="C105" s="242"/>
@@ -9008,7 +9008,7 @@
       <c r="N105" s="295"/>
       <c r="O105" s="295"/>
     </row>
-    <row r="106" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="323"/>
       <c r="B106" s="321"/>
       <c r="C106" s="293" t="s">
@@ -9025,7 +9025,7 @@
       <c r="J106" s="87"/>
       <c r="K106" s="151"/>
     </row>
-    <row r="107" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="323"/>
       <c r="B107" s="321"/>
       <c r="C107" s="255"/>
@@ -9043,7 +9043,7 @@
       <c r="J107" s="87"/>
       <c r="K107" s="151"/>
     </row>
-    <row r="108" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="323"/>
       <c r="B108" s="321"/>
       <c r="C108" s="293" t="s">
@@ -9060,7 +9060,7 @@
       <c r="J108" s="87"/>
       <c r="K108" s="151"/>
     </row>
-    <row r="109" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="323"/>
       <c r="B109" s="321"/>
       <c r="C109" s="255"/>
@@ -9078,7 +9078,7 @@
       <c r="J109" s="87"/>
       <c r="K109" s="151"/>
     </row>
-    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="323"/>
       <c r="B110" s="321"/>
       <c r="C110" s="293" t="s">
@@ -9098,7 +9098,7 @@
       <c r="J110" s="87"/>
       <c r="K110" s="151"/>
     </row>
-    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="323"/>
       <c r="B111" s="321"/>
       <c r="C111" s="255"/>
@@ -9111,7 +9111,7 @@
       <c r="J111" s="87"/>
       <c r="K111" s="151"/>
     </row>
-    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="323"/>
       <c r="B112" s="321"/>
       <c r="C112" s="255" t="s">
@@ -9128,7 +9128,7 @@
       <c r="J112" s="87"/>
       <c r="K112" s="151"/>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="323"/>
       <c r="B113" s="321"/>
       <c r="C113" s="255"/>
@@ -9144,7 +9144,7 @@
       <c r="J113" s="87"/>
       <c r="K113" s="151"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="323"/>
       <c r="B114" s="321"/>
       <c r="C114" s="306" t="s">
@@ -9159,7 +9159,7 @@
       <c r="J114" s="87"/>
       <c r="K114" s="151"/>
     </row>
-    <row r="115" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="323"/>
       <c r="B115" s="321"/>
       <c r="C115" s="88">
@@ -9191,7 +9191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>71</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="J116" s="138"/>
       <c r="K116" s="83"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="219"/>
       <c r="B117" s="143"/>
       <c r="C117" s="190"/>
@@ -9228,7 +9228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="322" t="s">
         <v>143</v>
       </c>
@@ -9245,7 +9245,7 @@
       <c r="J118" s="48"/>
       <c r="K118" s="83"/>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="323"/>
       <c r="B119" s="319"/>
       <c r="C119" s="302"/>
@@ -9258,7 +9258,7 @@
       <c r="J119" s="87"/>
       <c r="K119" s="151"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="323"/>
       <c r="B120" s="319"/>
       <c r="C120" s="242" t="s">
@@ -9278,7 +9278,7 @@
       <c r="J120" s="87"/>
       <c r="K120" s="151"/>
     </row>
-    <row r="121" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A121" s="323"/>
       <c r="B121" s="319"/>
       <c r="C121" s="242" t="s">
@@ -9297,7 +9297,7 @@
       <c r="J121" s="87"/>
       <c r="K121" s="151"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="323"/>
       <c r="B122" s="319"/>
       <c r="C122" s="242"/>
@@ -9310,7 +9310,7 @@
       <c r="J122" s="87"/>
       <c r="K122" s="151"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="323"/>
       <c r="B123" s="319"/>
       <c r="C123" s="293" t="s">
@@ -9327,7 +9327,7 @@
       <c r="J123" s="87"/>
       <c r="K123" s="151"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="323"/>
       <c r="B124" s="319"/>
       <c r="C124" s="255"/>
@@ -9345,7 +9345,7 @@
       <c r="J124" s="87"/>
       <c r="K124" s="151"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="323"/>
       <c r="B125" s="319"/>
       <c r="C125" s="293" t="s">
@@ -9362,7 +9362,7 @@
       <c r="J125" s="87"/>
       <c r="K125" s="151"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="323"/>
       <c r="B126" s="319"/>
       <c r="C126" s="255"/>
@@ -9380,7 +9380,7 @@
       <c r="J126" s="87"/>
       <c r="K126" s="151"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="323"/>
       <c r="B127" s="319"/>
       <c r="C127" s="293" t="s">
@@ -9400,7 +9400,7 @@
       <c r="J127" s="87"/>
       <c r="K127" s="151"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="323"/>
       <c r="B128" s="319"/>
       <c r="C128" s="255"/>
@@ -9413,7 +9413,7 @@
       <c r="J128" s="87"/>
       <c r="K128" s="151"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="323"/>
       <c r="B129" s="319"/>
       <c r="C129" s="255" t="s">
@@ -9430,7 +9430,7 @@
       <c r="J129" s="87"/>
       <c r="K129" s="151"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="323"/>
       <c r="B130" s="319"/>
       <c r="C130" s="255"/>
@@ -9446,7 +9446,7 @@
       <c r="J130" s="87"/>
       <c r="K130" s="151"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="323"/>
       <c r="B131" s="319"/>
       <c r="C131" s="306" t="s">
@@ -9461,7 +9461,7 @@
       <c r="J131" s="87"/>
       <c r="K131" s="151"/>
     </row>
-    <row r="132" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="323"/>
       <c r="B132" s="319"/>
       <c r="C132" s="227">
@@ -9493,7 +9493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="154" t="s">
         <v>77</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="141"/>
       <c r="B134" s="141"/>
       <c r="C134" s="20" t="s">
@@ -9539,7 +9539,7 @@
       <c r="J134" s="155"/>
       <c r="K134" s="84"/>
     </row>
-    <row r="135" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="154" t="s">
         <v>78</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="J135" s="48"/>
       <c r="K135" s="83"/>
     </row>
-    <row r="136" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="141"/>
       <c r="B136" s="141"/>
       <c r="C136" s="304" t="s">
@@ -9576,7 +9576,7 @@
       <c r="J136" s="155"/>
       <c r="K136" s="84"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="322" t="s">
         <v>144</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="J137" s="48"/>
       <c r="K137" s="83"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="323"/>
       <c r="B138" s="350"/>
       <c r="C138" s="51"/>
@@ -9606,7 +9606,7 @@
       <c r="J138" s="48"/>
       <c r="K138" s="83"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="323"/>
       <c r="B139" s="350"/>
       <c r="C139" s="51"/>
@@ -9619,7 +9619,7 @@
       <c r="J139" s="48"/>
       <c r="K139" s="83"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="323"/>
       <c r="B140" s="350"/>
       <c r="C140" s="51"/>
@@ -9632,7 +9632,7 @@
       <c r="J140" s="48"/>
       <c r="K140" s="83"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="323"/>
       <c r="B141" s="350"/>
       <c r="C141" s="51"/>
@@ -9645,7 +9645,7 @@
       <c r="J141" s="48"/>
       <c r="K141" s="83"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="323"/>
       <c r="B142" s="350"/>
       <c r="C142" s="51"/>
@@ -9658,7 +9658,7 @@
       <c r="J142" s="48"/>
       <c r="K142" s="83"/>
     </row>
-    <row r="143" spans="1:11" ht="339.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="323"/>
       <c r="B143" s="350"/>
       <c r="C143" s="51"/>
@@ -9671,7 +9671,7 @@
       <c r="J143" s="48"/>
       <c r="K143" s="83"/>
     </row>
-    <row r="144" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="84" x14ac:dyDescent="0.25">
       <c r="A144" s="154" t="s">
         <v>80</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="J144" s="48"/>
       <c r="K144" s="83"/>
     </row>
-    <row r="145" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="135"/>
       <c r="B145" s="135"/>
       <c r="C145" s="293" t="s">
@@ -9708,7 +9708,7 @@
       <c r="J145" s="48"/>
       <c r="K145" s="83"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="135"/>
       <c r="B146" s="135"/>
       <c r="C146" s="257" t="s">
@@ -9730,7 +9730,7 @@
       <c r="J146" s="48"/>
       <c r="K146" s="83"/>
     </row>
-    <row r="147" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A147" s="135"/>
       <c r="B147" s="135"/>
       <c r="C147" s="51" t="s">
@@ -9745,7 +9745,7 @@
       <c r="J147" s="48"/>
       <c r="K147" s="83"/>
     </row>
-    <row r="148" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="135"/>
       <c r="B148" s="135"/>
       <c r="C148" s="302" t="s">
@@ -9764,7 +9764,7 @@
         <v>14.019999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="135"/>
       <c r="B149" s="135"/>
       <c r="C149" s="51"/>
@@ -9783,7 +9783,7 @@
       <c r="J149" s="48"/>
       <c r="K149" s="83"/>
     </row>
-    <row r="150" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="135"/>
       <c r="B150" s="135"/>
       <c r="C150" s="51"/>
@@ -9796,7 +9796,7 @@
       <c r="J150" s="48"/>
       <c r="K150" s="83"/>
     </row>
-    <row r="151" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="135"/>
       <c r="B151" s="135"/>
       <c r="C151" s="51" t="s">
@@ -9826,7 +9826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="135"/>
       <c r="B152" s="135"/>
       <c r="C152" s="51"/>
@@ -9839,7 +9839,7 @@
       <c r="J152" s="48"/>
       <c r="K152" s="83"/>
     </row>
-    <row r="153" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="135"/>
       <c r="B153" s="135"/>
       <c r="C153" s="51" t="s">
@@ -9854,7 +9854,7 @@
       <c r="J153" s="48"/>
       <c r="K153" s="83"/>
     </row>
-    <row r="154" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="135"/>
       <c r="B154" s="135"/>
       <c r="C154" s="51"/>
@@ -9867,7 +9867,7 @@
       <c r="J154" s="48"/>
       <c r="K154" s="83"/>
     </row>
-    <row r="155" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="135"/>
       <c r="B155" s="135"/>
       <c r="C155" s="51" t="s">
@@ -9885,7 +9885,7 @@
       <c r="J155" s="48"/>
       <c r="K155" s="83"/>
     </row>
-    <row r="156" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="135"/>
       <c r="B156" s="135"/>
       <c r="C156" s="51" t="s">
@@ -9904,7 +9904,7 @@
       <c r="J156" s="48"/>
       <c r="K156" s="83"/>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="135"/>
       <c r="B157" s="135"/>
       <c r="C157" s="302" t="s">
@@ -9926,7 +9926,7 @@
       <c r="J157" s="48"/>
       <c r="K157" s="83"/>
     </row>
-    <row r="158" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="135"/>
       <c r="B158" s="135"/>
       <c r="C158" s="51"/>
@@ -9939,7 +9939,7 @@
       <c r="J158" s="48"/>
       <c r="K158" s="83"/>
     </row>
-    <row r="159" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="135"/>
       <c r="B159" s="135"/>
       <c r="C159" s="51" t="s">
@@ -9954,7 +9954,7 @@
       <c r="J159" s="48"/>
       <c r="K159" s="83"/>
     </row>
-    <row r="160" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="135"/>
       <c r="B160" s="135"/>
       <c r="C160" s="51">
@@ -9986,7 +9986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="135"/>
       <c r="B161" s="135"/>
       <c r="C161" s="51"/>
@@ -9999,7 +9999,7 @@
       <c r="J161" s="48"/>
       <c r="K161" s="83"/>
     </row>
-    <row r="162" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="135"/>
       <c r="B162" s="135"/>
       <c r="C162" s="293" t="s">
@@ -10019,7 +10019,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="135"/>
       <c r="B163" s="135"/>
       <c r="C163" s="231"/>
@@ -10032,7 +10032,7 @@
       <c r="J163" s="237"/>
       <c r="K163" s="83"/>
     </row>
-    <row r="164" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="135"/>
       <c r="B164" s="135"/>
       <c r="C164" s="293" t="s">
@@ -10054,7 +10054,7 @@
       <c r="J164" s="48"/>
       <c r="K164" s="83"/>
     </row>
-    <row r="165" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="135"/>
       <c r="B165" s="135"/>
       <c r="C165" s="231"/>
@@ -10067,7 +10067,7 @@
       <c r="J165" s="48"/>
       <c r="K165" s="83"/>
     </row>
-    <row r="166" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="135"/>
       <c r="B166" s="135"/>
       <c r="C166" s="302" t="s">
@@ -10082,7 +10082,7 @@
       <c r="J166" s="48"/>
       <c r="K166" s="83"/>
     </row>
-    <row r="167" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="135"/>
       <c r="B167" s="135"/>
       <c r="C167" s="51">
@@ -10113,7 +10113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="135"/>
       <c r="B168" s="135"/>
       <c r="C168" s="51"/>
@@ -10127,7 +10127,7 @@
       <c r="K168" s="83"/>
       <c r="S168" s="33"/>
     </row>
-    <row r="169" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="135"/>
       <c r="B169" s="135"/>
       <c r="C169" s="51"/>
@@ -10147,7 +10147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="135"/>
       <c r="B170" s="135"/>
       <c r="C170" s="20"/>
@@ -10160,7 +10160,7 @@
       <c r="J170" s="155"/>
       <c r="K170" s="84"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="322" t="s">
         <v>145</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="J171" s="158"/>
       <c r="K171" s="83"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="323"/>
       <c r="B172" s="352"/>
       <c r="C172" s="51"/>
@@ -10190,7 +10190,7 @@
       <c r="J172" s="158"/>
       <c r="K172" s="83"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="323"/>
       <c r="B173" s="352"/>
       <c r="C173" s="51"/>
@@ -10203,7 +10203,7 @@
       <c r="J173" s="158"/>
       <c r="K173" s="83"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="323"/>
       <c r="B174" s="352"/>
       <c r="C174" s="51"/>
@@ -10216,7 +10216,7 @@
       <c r="J174" s="158"/>
       <c r="K174" s="83"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="323"/>
       <c r="B175" s="352"/>
       <c r="C175" s="51"/>
@@ -10229,7 +10229,7 @@
       <c r="J175" s="158"/>
       <c r="K175" s="83"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="323"/>
       <c r="B176" s="352"/>
       <c r="C176" s="51"/>
@@ -10242,7 +10242,7 @@
       <c r="J176" s="158"/>
       <c r="K176" s="83"/>
     </row>
-    <row r="177" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="323"/>
       <c r="B177" s="352"/>
       <c r="C177" s="51"/>
@@ -10255,7 +10255,7 @@
       <c r="J177" s="158"/>
       <c r="K177" s="83"/>
     </row>
-    <row r="178" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="160"/>
       <c r="B178" s="161"/>
       <c r="C178" s="20"/>
@@ -10274,7 +10274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="236">
         <v>12</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="K179" s="27"/>
       <c r="L179" s="135"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="236" t="s">
         <v>132</v>
       </c>
@@ -10308,7 +10308,7 @@
       <c r="K180" s="27"/>
       <c r="L180" s="135"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="172"/>
       <c r="B181" s="355"/>
       <c r="C181" s="235"/>
@@ -10322,7 +10322,7 @@
       <c r="K181" s="27"/>
       <c r="L181" s="135"/>
     </row>
-    <row r="182" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="172"/>
       <c r="B182" s="356"/>
       <c r="C182" s="283"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L182" s="135"/>
     </row>
-    <row r="183" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="339" t="s">
         <v>182</v>
       </c>
@@ -10358,7 +10358,7 @@
       <c r="K183" s="27"/>
       <c r="L183" s="135"/>
     </row>
-    <row r="184" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="340"/>
       <c r="B184" s="23"/>
       <c r="C184" s="296" t="s">
@@ -10379,7 +10379,7 @@
       <c r="K184" s="27"/>
       <c r="L184" s="135"/>
     </row>
-    <row r="185" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="100" t="s">
         <v>106</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="L185" s="135"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="28"/>
       <c r="C186" s="29"/>
@@ -10426,7 +10426,7 @@
       <c r="J186" s="30"/>
       <c r="K186" s="27"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
       <c r="C187" s="29"/>
@@ -10439,7 +10439,7 @@
       <c r="J187" s="30"/>
       <c r="K187" s="27"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
       <c r="C188" s="29"/>
@@ -10452,7 +10452,7 @@
       <c r="J188" s="30"/>
       <c r="K188" s="27"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
       <c r="C189" s="29"/>
@@ -10465,7 +10465,7 @@
       <c r="J189" s="30"/>
       <c r="K189" s="27"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="28"/>
       <c r="C190" s="29"/>
@@ -10478,7 +10478,7 @@
       <c r="J190" s="30"/>
       <c r="K190" s="27"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="28"/>
       <c r="C191" s="29"/>
@@ -10491,7 +10491,7 @@
       <c r="J191" s="30"/>
       <c r="K191" s="27"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="29"/>
@@ -10504,7 +10504,7 @@
       <c r="J192" s="30"/>
       <c r="K192" s="27"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="28"/>
       <c r="C193" s="29"/>
@@ -10517,7 +10517,7 @@
       <c r="J193" s="30"/>
       <c r="K193" s="27"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
       <c r="C194" s="29"/>
@@ -10530,7 +10530,7 @@
       <c r="J194" s="30"/>
       <c r="K194" s="27"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="28"/>
       <c r="C195" s="29"/>
@@ -10543,7 +10543,7 @@
       <c r="J195" s="30"/>
       <c r="K195" s="27"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="28"/>
       <c r="C196" s="29"/>
@@ -10556,7 +10556,7 @@
       <c r="J196" s="30"/>
       <c r="K196" s="27"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="28"/>
       <c r="C197" s="29"/>
@@ -10569,7 +10569,7 @@
       <c r="J197" s="30"/>
       <c r="K197" s="27"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
       <c r="B198" s="28"/>
       <c r="C198" s="29"/>
@@ -10582,7 +10582,7 @@
       <c r="J198" s="30"/>
       <c r="K198" s="27"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="29"/>
@@ -10595,7 +10595,7 @@
       <c r="J199" s="30"/>
       <c r="K199" s="27"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
       <c r="B200" s="28"/>
       <c r="C200" s="29"/>
@@ -10608,7 +10608,7 @@
       <c r="J200" s="30"/>
       <c r="K200" s="27"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
       <c r="B201" s="28"/>
       <c r="C201" s="29"/>
@@ -10621,7 +10621,7 @@
       <c r="J201" s="30"/>
       <c r="K201" s="27"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="28"/>
       <c r="C202" s="29"/>
@@ -10634,7 +10634,7 @@
       <c r="J202" s="30"/>
       <c r="K202" s="27"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
       <c r="B203" s="28"/>
       <c r="C203" s="29"/>
@@ -10647,7 +10647,7 @@
       <c r="J203" s="30"/>
       <c r="K203" s="27"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
       <c r="B204" s="28"/>
       <c r="C204" s="29"/>
@@ -10660,7 +10660,7 @@
       <c r="J204" s="30"/>
       <c r="K204" s="27"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
       <c r="B205" s="28"/>
       <c r="C205" s="29"/>
@@ -10673,7 +10673,7 @@
       <c r="J205" s="30"/>
       <c r="K205" s="27"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
       <c r="B206" s="28"/>
       <c r="C206" s="29"/>
@@ -10686,7 +10686,7 @@
       <c r="J206" s="30"/>
       <c r="K206" s="27"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
       <c r="B207" s="28"/>
       <c r="C207" s="29"/>
@@ -10699,7 +10699,7 @@
       <c r="J207" s="30"/>
       <c r="K207" s="27"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
       <c r="B208" s="28"/>
       <c r="C208" s="29"/>
@@ -10712,7 +10712,7 @@
       <c r="J208" s="30"/>
       <c r="K208" s="27"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
       <c r="B209" s="28"/>
       <c r="C209" s="29"/>
@@ -10725,7 +10725,7 @@
       <c r="J209" s="30"/>
       <c r="K209" s="27"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="28"/>
       <c r="C210" s="29"/>
@@ -10738,7 +10738,7 @@
       <c r="J210" s="30"/>
       <c r="K210" s="27"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="15"/>
       <c r="B211" s="15"/>
       <c r="C211" s="16"/>
@@ -10751,7 +10751,7 @@
       <c r="J211" s="30"/>
       <c r="K211" s="27"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="16"/>
@@ -10764,7 +10764,7 @@
       <c r="J212" s="30"/>
       <c r="K212" s="27"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="16"/>
@@ -10777,7 +10777,7 @@
       <c r="J213" s="30"/>
       <c r="K213" s="27"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="16"/>
@@ -10790,7 +10790,7 @@
       <c r="J214" s="30"/>
       <c r="K214" s="27"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="16"/>
@@ -10803,7 +10803,7 @@
       <c r="J215" s="30"/>
       <c r="K215" s="27"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="16"/>
@@ -10816,7 +10816,7 @@
       <c r="J216" s="30"/>
       <c r="K216" s="27"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="16"/>
@@ -10829,7 +10829,7 @@
       <c r="J217" s="30"/>
       <c r="K217" s="27"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="16"/>
@@ -10842,2006 +10842,2006 @@
       <c r="J218" s="30"/>
       <c r="K218" s="27"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J219" s="33"/>
       <c r="K219" s="33"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J220" s="33"/>
       <c r="K220" s="33"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J221" s="33"/>
       <c r="K221" s="33"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J222" s="33"/>
       <c r="K222" s="33"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J223" s="33"/>
       <c r="K223" s="33"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J224" s="33"/>
       <c r="K224" s="33"/>
     </row>
-    <row r="225" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J225" s="33"/>
       <c r="K225" s="33"/>
     </row>
-    <row r="226" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J226" s="33"/>
       <c r="K226" s="33"/>
     </row>
-    <row r="227" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J227" s="33"/>
       <c r="K227" s="33"/>
     </row>
-    <row r="228" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J228" s="33"/>
       <c r="K228" s="33"/>
     </row>
-    <row r="229" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J229" s="33"/>
       <c r="K229" s="33"/>
     </row>
-    <row r="230" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J230" s="33"/>
       <c r="K230" s="33"/>
     </row>
-    <row r="231" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J231" s="33"/>
       <c r="K231" s="33"/>
     </row>
-    <row r="232" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J232" s="33"/>
       <c r="K232" s="33"/>
     </row>
-    <row r="233" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J233" s="33"/>
       <c r="K233" s="33"/>
     </row>
-    <row r="234" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J234" s="33"/>
       <c r="K234" s="33"/>
     </row>
-    <row r="235" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J235" s="33"/>
       <c r="K235" s="33"/>
     </row>
-    <row r="236" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J236" s="33"/>
       <c r="K236" s="33"/>
     </row>
-    <row r="237" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J237" s="33"/>
       <c r="K237" s="33"/>
     </row>
-    <row r="238" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J238" s="33"/>
       <c r="K238" s="33"/>
     </row>
-    <row r="239" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J239" s="33"/>
       <c r="K239" s="33"/>
     </row>
-    <row r="240" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J240" s="33"/>
       <c r="K240" s="52"/>
     </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J241" s="33"/>
     </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J242" s="33"/>
     </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J243" s="33"/>
     </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J244" s="33"/>
     </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J245" s="33"/>
     </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J246" s="33"/>
     </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J247" s="33"/>
     </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J248" s="33"/>
     </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J249" s="33"/>
     </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J250" s="33"/>
     </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J251" s="33"/>
     </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J252" s="33"/>
     </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J253" s="33"/>
     </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J254" s="33"/>
     </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J255" s="33"/>
     </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J256" s="33"/>
     </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J257" s="33"/>
     </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J258" s="33"/>
     </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J259" s="33"/>
     </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J260" s="33"/>
     </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J261" s="33"/>
     </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J262" s="33"/>
     </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J263" s="33"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J264" s="33"/>
     </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J265" s="33"/>
     </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J266" s="33"/>
     </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J267" s="33"/>
     </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J268" s="33"/>
     </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J269" s="33"/>
     </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J270" s="33"/>
     </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J271" s="33"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J272" s="33"/>
     </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J273" s="33"/>
     </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J274" s="33"/>
     </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J275" s="33"/>
     </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J276" s="33"/>
     </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J277" s="33"/>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J278" s="33"/>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J279" s="33"/>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J280" s="33"/>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J281" s="33"/>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J282" s="33"/>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J283" s="33"/>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J284" s="33"/>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J285" s="33"/>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J286" s="33"/>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J287" s="33"/>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J288" s="33"/>
     </row>
-    <row r="289" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J289" s="33"/>
     </row>
-    <row r="290" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J290" s="33"/>
     </row>
-    <row r="291" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J291" s="33"/>
     </row>
-    <row r="292" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J292" s="33"/>
     </row>
-    <row r="293" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J293" s="33"/>
     </row>
-    <row r="294" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J294" s="33"/>
     </row>
-    <row r="295" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J295" s="33"/>
     </row>
-    <row r="296" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J296" s="33"/>
     </row>
-    <row r="297" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J297" s="33"/>
     </row>
-    <row r="298" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J298" s="33"/>
     </row>
-    <row r="299" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J299" s="33"/>
     </row>
-    <row r="300" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J300" s="33"/>
     </row>
-    <row r="301" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J301" s="33"/>
     </row>
-    <row r="302" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J302" s="33"/>
     </row>
-    <row r="303" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J303" s="33"/>
     </row>
-    <row r="304" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J304" s="33"/>
     </row>
-    <row r="305" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J305" s="33"/>
     </row>
-    <row r="306" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J306" s="33"/>
     </row>
-    <row r="307" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J307" s="33"/>
     </row>
-    <row r="308" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J308" s="33"/>
     </row>
-    <row r="309" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J309" s="33"/>
     </row>
-    <row r="310" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J310" s="33"/>
     </row>
-    <row r="311" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J311" s="33"/>
     </row>
-    <row r="312" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J312" s="33"/>
     </row>
-    <row r="313" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J313" s="33"/>
     </row>
-    <row r="314" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J314" s="33"/>
     </row>
-    <row r="315" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J315" s="33"/>
     </row>
-    <row r="316" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J316" s="33"/>
     </row>
-    <row r="317" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J317" s="33"/>
     </row>
-    <row r="318" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J318" s="33"/>
     </row>
-    <row r="319" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J319" s="33"/>
     </row>
-    <row r="320" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J320" s="33"/>
     </row>
-    <row r="321" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J321" s="33"/>
     </row>
-    <row r="322" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J322" s="33"/>
     </row>
-    <row r="323" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J323" s="33"/>
     </row>
-    <row r="324" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J324" s="33"/>
     </row>
-    <row r="325" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J325" s="33"/>
     </row>
-    <row r="326" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J326" s="33"/>
     </row>
-    <row r="327" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J327" s="33"/>
     </row>
-    <row r="328" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J328" s="33"/>
     </row>
-    <row r="329" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J329" s="33"/>
     </row>
-    <row r="330" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J330" s="33"/>
     </row>
-    <row r="331" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J331" s="33"/>
     </row>
-    <row r="332" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J332" s="33"/>
     </row>
-    <row r="333" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J333" s="33"/>
     </row>
-    <row r="334" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J334" s="33"/>
     </row>
-    <row r="335" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J335" s="33"/>
     </row>
-    <row r="336" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J336" s="33"/>
     </row>
-    <row r="337" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J337" s="33"/>
     </row>
-    <row r="338" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J338" s="33"/>
     </row>
-    <row r="339" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J339" s="33"/>
     </row>
-    <row r="340" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J340" s="33"/>
     </row>
-    <row r="341" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J341" s="33"/>
     </row>
-    <row r="342" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J342" s="33"/>
     </row>
-    <row r="343" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J343" s="33"/>
     </row>
-    <row r="344" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J344" s="33"/>
     </row>
-    <row r="345" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J345" s="33"/>
     </row>
-    <row r="346" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J346" s="33"/>
     </row>
-    <row r="347" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J347" s="33"/>
     </row>
-    <row r="348" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J348" s="33"/>
     </row>
-    <row r="349" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J349" s="33"/>
     </row>
-    <row r="350" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J350" s="33"/>
     </row>
-    <row r="351" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J351" s="33"/>
     </row>
-    <row r="352" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J352" s="33"/>
     </row>
-    <row r="353" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J353" s="33"/>
     </row>
-    <row r="354" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J354" s="33"/>
     </row>
-    <row r="355" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J355" s="33"/>
     </row>
-    <row r="356" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J356" s="33"/>
     </row>
-    <row r="357" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J357" s="33"/>
     </row>
-    <row r="358" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J358" s="33"/>
     </row>
-    <row r="359" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J359" s="33"/>
     </row>
-    <row r="360" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J360" s="33"/>
     </row>
-    <row r="361" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J361" s="33"/>
     </row>
-    <row r="362" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J362" s="33"/>
     </row>
-    <row r="363" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J363" s="33"/>
     </row>
-    <row r="364" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J364" s="33"/>
     </row>
-    <row r="365" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J365" s="33"/>
     </row>
-    <row r="366" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J366" s="33"/>
     </row>
-    <row r="367" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J367" s="33"/>
     </row>
-    <row r="368" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J368" s="33"/>
     </row>
-    <row r="369" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J369" s="33"/>
     </row>
-    <row r="370" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J370" s="33"/>
     </row>
-    <row r="371" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J371" s="33"/>
     </row>
-    <row r="372" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J372" s="33"/>
     </row>
-    <row r="373" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J373" s="33"/>
     </row>
-    <row r="374" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J374" s="33"/>
     </row>
-    <row r="375" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J375" s="33"/>
     </row>
-    <row r="376" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J376" s="33"/>
     </row>
-    <row r="377" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J377" s="33"/>
     </row>
-    <row r="378" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J378" s="33"/>
     </row>
-    <row r="379" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J379" s="33"/>
     </row>
-    <row r="380" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J380" s="33"/>
     </row>
-    <row r="381" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J381" s="33"/>
     </row>
-    <row r="382" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J382" s="33"/>
     </row>
-    <row r="383" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J383" s="33"/>
     </row>
-    <row r="384" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J384" s="33"/>
     </row>
-    <row r="385" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J385" s="33"/>
     </row>
-    <row r="386" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J386" s="33"/>
     </row>
-    <row r="387" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J387" s="33"/>
     </row>
-    <row r="388" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J388" s="33"/>
     </row>
-    <row r="389" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J389" s="33"/>
     </row>
-    <row r="390" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J390" s="33"/>
     </row>
-    <row r="391" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J391" s="33"/>
     </row>
-    <row r="392" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J392" s="33"/>
     </row>
-    <row r="393" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J393" s="33"/>
     </row>
-    <row r="394" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J394" s="33"/>
     </row>
-    <row r="395" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J395" s="33"/>
     </row>
-    <row r="396" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J396" s="33"/>
     </row>
-    <row r="397" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J397" s="33"/>
     </row>
-    <row r="398" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J398" s="33"/>
     </row>
-    <row r="399" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J399" s="33"/>
     </row>
-    <row r="400" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J400" s="33"/>
     </row>
-    <row r="401" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J401" s="33"/>
     </row>
-    <row r="402" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J402" s="33"/>
     </row>
-    <row r="403" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J403" s="33"/>
     </row>
-    <row r="404" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J404" s="33"/>
     </row>
-    <row r="405" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J405" s="33"/>
     </row>
-    <row r="406" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J406" s="33"/>
     </row>
-    <row r="407" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J407" s="33"/>
     </row>
-    <row r="408" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J408" s="33"/>
     </row>
-    <row r="409" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J409" s="33"/>
     </row>
-    <row r="410" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J410" s="33"/>
     </row>
-    <row r="411" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J411" s="33"/>
     </row>
-    <row r="412" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J412" s="33"/>
     </row>
-    <row r="413" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J413" s="33"/>
     </row>
-    <row r="414" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J414" s="33"/>
     </row>
-    <row r="415" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J415" s="33"/>
     </row>
-    <row r="416" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J416" s="33"/>
     </row>
-    <row r="417" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J417" s="33"/>
     </row>
-    <row r="418" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J418" s="33"/>
     </row>
-    <row r="419" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J419" s="33"/>
     </row>
-    <row r="420" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J420" s="33"/>
     </row>
-    <row r="421" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J421" s="33"/>
     </row>
-    <row r="422" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J422" s="33"/>
     </row>
-    <row r="423" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J423" s="33"/>
     </row>
-    <row r="424" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J424" s="33"/>
     </row>
-    <row r="425" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J425" s="33"/>
     </row>
-    <row r="426" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J426" s="33"/>
     </row>
-    <row r="427" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J427" s="33"/>
     </row>
-    <row r="428" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J428" s="33"/>
     </row>
-    <row r="429" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J429" s="33"/>
     </row>
-    <row r="430" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J430" s="33"/>
     </row>
-    <row r="431" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J431" s="33"/>
     </row>
-    <row r="432" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J432" s="33"/>
     </row>
-    <row r="433" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J433" s="33"/>
     </row>
-    <row r="434" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J434" s="33"/>
     </row>
-    <row r="435" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J435" s="33"/>
     </row>
-    <row r="436" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J436" s="33"/>
     </row>
-    <row r="437" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J437" s="33"/>
     </row>
-    <row r="438" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J438" s="33"/>
     </row>
-    <row r="439" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J439" s="33"/>
     </row>
-    <row r="440" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J440" s="33"/>
     </row>
-    <row r="441" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J441" s="33"/>
     </row>
-    <row r="442" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J442" s="33"/>
     </row>
-    <row r="443" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J443" s="33"/>
     </row>
-    <row r="444" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J444" s="33"/>
     </row>
-    <row r="445" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J445" s="33"/>
     </row>
-    <row r="446" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J446" s="33"/>
     </row>
-    <row r="447" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J447" s="33"/>
     </row>
-    <row r="448" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J448" s="33"/>
     </row>
-    <row r="449" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J449" s="33"/>
     </row>
-    <row r="450" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J450" s="33"/>
     </row>
-    <row r="451" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J451" s="33"/>
     </row>
-    <row r="452" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J452" s="33"/>
     </row>
-    <row r="453" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J453" s="33"/>
     </row>
-    <row r="454" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J454" s="33"/>
     </row>
-    <row r="455" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J455" s="33"/>
     </row>
-    <row r="456" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J456" s="33"/>
     </row>
-    <row r="457" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J457" s="33"/>
     </row>
-    <row r="458" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J458" s="33"/>
     </row>
-    <row r="459" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J459" s="33"/>
     </row>
-    <row r="460" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J460" s="33"/>
     </row>
-    <row r="461" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J461" s="33"/>
     </row>
-    <row r="462" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J462" s="33"/>
     </row>
-    <row r="463" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J463" s="33"/>
     </row>
-    <row r="464" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J464" s="33"/>
     </row>
-    <row r="465" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J465" s="33"/>
     </row>
-    <row r="466" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J466" s="33"/>
     </row>
-    <row r="467" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J467" s="33"/>
     </row>
-    <row r="468" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J468" s="33"/>
     </row>
-    <row r="469" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J469" s="33"/>
     </row>
-    <row r="470" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J470" s="33"/>
     </row>
-    <row r="471" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J471" s="33"/>
     </row>
-    <row r="472" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J472" s="33"/>
     </row>
-    <row r="473" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J473" s="33"/>
     </row>
-    <row r="474" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J474" s="33"/>
     </row>
-    <row r="475" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J475" s="33"/>
     </row>
-    <row r="476" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J476" s="33"/>
     </row>
-    <row r="477" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J477" s="33"/>
     </row>
-    <row r="478" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J478" s="33"/>
     </row>
-    <row r="479" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J479" s="33"/>
     </row>
-    <row r="480" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J480" s="33"/>
     </row>
-    <row r="481" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J481" s="33"/>
     </row>
-    <row r="482" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J482" s="33"/>
     </row>
-    <row r="483" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J483" s="33"/>
     </row>
-    <row r="484" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J484" s="33"/>
     </row>
-    <row r="485" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J485" s="33"/>
     </row>
-    <row r="486" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J486" s="33"/>
     </row>
-    <row r="487" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J487" s="33"/>
     </row>
-    <row r="488" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J488" s="33"/>
     </row>
-    <row r="489" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J489" s="33"/>
     </row>
-    <row r="490" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J490" s="33"/>
     </row>
-    <row r="491" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J491" s="33"/>
     </row>
-    <row r="492" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J492" s="33"/>
     </row>
-    <row r="493" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J493" s="33"/>
     </row>
-    <row r="494" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J494" s="33"/>
     </row>
-    <row r="495" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J495" s="33"/>
     </row>
-    <row r="496" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J496" s="33"/>
     </row>
-    <row r="497" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J497" s="33"/>
     </row>
-    <row r="498" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J498" s="33"/>
     </row>
-    <row r="499" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J499" s="33"/>
     </row>
-    <row r="500" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J500" s="33"/>
     </row>
-    <row r="501" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J501" s="33"/>
     </row>
-    <row r="502" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J502" s="33"/>
     </row>
-    <row r="503" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J503" s="33"/>
     </row>
-    <row r="504" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J504" s="33"/>
     </row>
-    <row r="505" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J505" s="33"/>
     </row>
-    <row r="506" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J506" s="33"/>
     </row>
-    <row r="507" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J507" s="33"/>
     </row>
-    <row r="508" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J508" s="33"/>
     </row>
-    <row r="509" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J509" s="33"/>
     </row>
-    <row r="510" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J510" s="33"/>
     </row>
-    <row r="511" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J511" s="33"/>
     </row>
-    <row r="512" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J512" s="33"/>
     </row>
-    <row r="513" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J513" s="33"/>
     </row>
-    <row r="514" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J514" s="33"/>
     </row>
-    <row r="515" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J515" s="33"/>
     </row>
-    <row r="516" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J516" s="33"/>
     </row>
-    <row r="517" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J517" s="33"/>
     </row>
-    <row r="518" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J518" s="33"/>
     </row>
-    <row r="519" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J519" s="33"/>
     </row>
-    <row r="520" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J520" s="33"/>
     </row>
-    <row r="521" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J521" s="33"/>
     </row>
-    <row r="522" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J522" s="33"/>
     </row>
-    <row r="523" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J523" s="33"/>
     </row>
-    <row r="524" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J524" s="33"/>
     </row>
-    <row r="525" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J525" s="33"/>
     </row>
-    <row r="526" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J526" s="33"/>
     </row>
-    <row r="527" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J527" s="33"/>
     </row>
-    <row r="528" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J528" s="33"/>
     </row>
-    <row r="529" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J529" s="33"/>
     </row>
-    <row r="530" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J530" s="33"/>
     </row>
-    <row r="531" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J531" s="33"/>
     </row>
-    <row r="532" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J532" s="33"/>
     </row>
-    <row r="533" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J533" s="33"/>
     </row>
-    <row r="534" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J534" s="33"/>
     </row>
-    <row r="535" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J535" s="33"/>
     </row>
-    <row r="536" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J536" s="33"/>
     </row>
-    <row r="537" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J537" s="33"/>
     </row>
-    <row r="538" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J538" s="33"/>
     </row>
-    <row r="539" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J539" s="33"/>
     </row>
-    <row r="540" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J540" s="33"/>
     </row>
-    <row r="541" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J541" s="33"/>
     </row>
-    <row r="542" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J542" s="33"/>
     </row>
-    <row r="543" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J543" s="33"/>
     </row>
-    <row r="544" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J544" s="33"/>
     </row>
-    <row r="545" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J545" s="33"/>
     </row>
-    <row r="546" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J546" s="33"/>
     </row>
-    <row r="547" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J547" s="33"/>
     </row>
-    <row r="548" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J548" s="33"/>
     </row>
-    <row r="549" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J549" s="33"/>
     </row>
-    <row r="550" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J550" s="33"/>
     </row>
-    <row r="551" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J551" s="33"/>
     </row>
-    <row r="552" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J552" s="33"/>
     </row>
-    <row r="553" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J553" s="33"/>
     </row>
-    <row r="554" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J554" s="33"/>
     </row>
-    <row r="555" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J555" s="33"/>
     </row>
-    <row r="556" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J556" s="33"/>
     </row>
-    <row r="557" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J557" s="33"/>
     </row>
-    <row r="558" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J558" s="33"/>
     </row>
-    <row r="559" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J559" s="33"/>
     </row>
-    <row r="560" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J560" s="33"/>
     </row>
-    <row r="561" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J561" s="33"/>
     </row>
-    <row r="562" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J562" s="33"/>
     </row>
-    <row r="563" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J563" s="33"/>
     </row>
-    <row r="564" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J564" s="33"/>
     </row>
-    <row r="565" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J565" s="33"/>
     </row>
-    <row r="566" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J566" s="33"/>
     </row>
-    <row r="567" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J567" s="33"/>
     </row>
-    <row r="568" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J568" s="33"/>
     </row>
-    <row r="569" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J569" s="33"/>
     </row>
-    <row r="570" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J570" s="33"/>
     </row>
-    <row r="571" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J571" s="33"/>
     </row>
-    <row r="572" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J572" s="33"/>
     </row>
-    <row r="573" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J573" s="33"/>
     </row>
-    <row r="574" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J574" s="33"/>
     </row>
-    <row r="575" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J575" s="33"/>
     </row>
-    <row r="576" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J576" s="33"/>
     </row>
-    <row r="577" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J577" s="33"/>
     </row>
-    <row r="578" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J578" s="33"/>
     </row>
-    <row r="579" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J579" s="33"/>
     </row>
-    <row r="580" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J580" s="33"/>
     </row>
-    <row r="581" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J581" s="33"/>
     </row>
-    <row r="582" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J582" s="33"/>
     </row>
-    <row r="583" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J583" s="33"/>
     </row>
-    <row r="584" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J584" s="33"/>
     </row>
-    <row r="585" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J585" s="33"/>
     </row>
-    <row r="586" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J586" s="33"/>
     </row>
-    <row r="587" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J587" s="33"/>
     </row>
-    <row r="588" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J588" s="33"/>
     </row>
-    <row r="589" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J589" s="33"/>
     </row>
-    <row r="590" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J590" s="33"/>
     </row>
-    <row r="591" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J591" s="33"/>
     </row>
-    <row r="592" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J592" s="33"/>
     </row>
-    <row r="593" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J593" s="33"/>
     </row>
-    <row r="594" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J594" s="33"/>
     </row>
-    <row r="595" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J595" s="33"/>
     </row>
-    <row r="596" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J596" s="33"/>
     </row>
-    <row r="597" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J597" s="33"/>
     </row>
-    <row r="598" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J598" s="33"/>
     </row>
-    <row r="599" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J599" s="33"/>
     </row>
-    <row r="600" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J600" s="33"/>
     </row>
-    <row r="601" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J601" s="33"/>
     </row>
-    <row r="602" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J602" s="33"/>
     </row>
-    <row r="603" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J603" s="33"/>
     </row>
-    <row r="604" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J604" s="33"/>
     </row>
-    <row r="605" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J605" s="33"/>
     </row>
-    <row r="606" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J606" s="33"/>
     </row>
-    <row r="607" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J607" s="33"/>
     </row>
-    <row r="608" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J608" s="33"/>
     </row>
-    <row r="609" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J609" s="33"/>
     </row>
-    <row r="610" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J610" s="33"/>
     </row>
-    <row r="611" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J611" s="33"/>
     </row>
-    <row r="612" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J612" s="33"/>
     </row>
-    <row r="613" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J613" s="33"/>
     </row>
-    <row r="614" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J614" s="33"/>
     </row>
-    <row r="615" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J615" s="33"/>
     </row>
-    <row r="616" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J616" s="33"/>
     </row>
-    <row r="617" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J617" s="33"/>
     </row>
-    <row r="618" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J618" s="33"/>
     </row>
-    <row r="619" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J619" s="33"/>
     </row>
-    <row r="620" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J620" s="33"/>
     </row>
-    <row r="621" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J621" s="33"/>
     </row>
-    <row r="622" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J622" s="33"/>
     </row>
-    <row r="623" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J623" s="33"/>
     </row>
-    <row r="624" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J624" s="33"/>
     </row>
-    <row r="625" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J625" s="33"/>
     </row>
-    <row r="626" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J626" s="33"/>
     </row>
-    <row r="627" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J627" s="33"/>
     </row>
-    <row r="628" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J628" s="33"/>
     </row>
-    <row r="629" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J629" s="33"/>
     </row>
-    <row r="630" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J630" s="33"/>
     </row>
-    <row r="631" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J631" s="33"/>
     </row>
-    <row r="632" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J632" s="33"/>
     </row>
-    <row r="633" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J633" s="33"/>
     </row>
-    <row r="634" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J634" s="33"/>
     </row>
-    <row r="635" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J635" s="33"/>
     </row>
-    <row r="636" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J636" s="33"/>
     </row>
-    <row r="637" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J637" s="33"/>
     </row>
-    <row r="638" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J638" s="33"/>
     </row>
-    <row r="639" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J639" s="33"/>
     </row>
-    <row r="640" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J640" s="33"/>
     </row>
-    <row r="641" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J641" s="33"/>
     </row>
-    <row r="642" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J642" s="33"/>
     </row>
-    <row r="643" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J643" s="33"/>
     </row>
-    <row r="644" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J644" s="33"/>
     </row>
-    <row r="645" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J645" s="33"/>
     </row>
-    <row r="646" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J646" s="33"/>
     </row>
-    <row r="647" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J647" s="33"/>
     </row>
-    <row r="648" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J648" s="33"/>
     </row>
-    <row r="649" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J649" s="33"/>
     </row>
-    <row r="650" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J650" s="33"/>
     </row>
-    <row r="651" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J651" s="33"/>
     </row>
-    <row r="652" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J652" s="33"/>
     </row>
-    <row r="653" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J653" s="33"/>
     </row>
-    <row r="654" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J654" s="33"/>
     </row>
-    <row r="655" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J655" s="33"/>
     </row>
-    <row r="656" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J656" s="33"/>
     </row>
-    <row r="657" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J657" s="33"/>
     </row>
-    <row r="658" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J658" s="33"/>
     </row>
-    <row r="659" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J659" s="33"/>
     </row>
-    <row r="660" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J660" s="33"/>
     </row>
-    <row r="661" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J661" s="33"/>
     </row>
-    <row r="662" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J662" s="33"/>
     </row>
-    <row r="663" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J663" s="33"/>
     </row>
-    <row r="664" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J664" s="33"/>
     </row>
-    <row r="665" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J665" s="33"/>
     </row>
-    <row r="666" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J666" s="33"/>
     </row>
-    <row r="667" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J667" s="33"/>
     </row>
-    <row r="668" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J668" s="33"/>
     </row>
-    <row r="669" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J669" s="33"/>
     </row>
-    <row r="670" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J670" s="33"/>
     </row>
-    <row r="671" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J671" s="33"/>
     </row>
-    <row r="672" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J672" s="33"/>
     </row>
-    <row r="673" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J673" s="33"/>
     </row>
-    <row r="674" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J674" s="33"/>
     </row>
-    <row r="675" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J675" s="33"/>
     </row>
-    <row r="676" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J676" s="33"/>
     </row>
-    <row r="677" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J677" s="33"/>
     </row>
-    <row r="678" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J678" s="33"/>
     </row>
-    <row r="679" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J679" s="33"/>
     </row>
-    <row r="680" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J680" s="33"/>
     </row>
-    <row r="681" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J681" s="33"/>
     </row>
-    <row r="682" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J682" s="33"/>
     </row>
-    <row r="683" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J683" s="33"/>
     </row>
-    <row r="684" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J684" s="33"/>
     </row>
-    <row r="685" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J685" s="33"/>
     </row>
-    <row r="686" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J686" s="33"/>
     </row>
-    <row r="687" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J687" s="33"/>
     </row>
-    <row r="688" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J688" s="33"/>
     </row>
-    <row r="689" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J689" s="33"/>
     </row>
-    <row r="690" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J690" s="33"/>
     </row>
-    <row r="691" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J691" s="33"/>
     </row>
-    <row r="692" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J692" s="33"/>
     </row>
-    <row r="693" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J693" s="33"/>
     </row>
-    <row r="694" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J694" s="33"/>
     </row>
-    <row r="695" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J695" s="33"/>
     </row>
-    <row r="696" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J696" s="33"/>
     </row>
-    <row r="697" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J697" s="33"/>
     </row>
-    <row r="698" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J698" s="33"/>
     </row>
-    <row r="699" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J699" s="33"/>
     </row>
-    <row r="700" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J700" s="33"/>
     </row>
-    <row r="701" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J701" s="33"/>
     </row>
-    <row r="702" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J702" s="33"/>
     </row>
-    <row r="703" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J703" s="33"/>
     </row>
-    <row r="704" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J704" s="33"/>
     </row>
-    <row r="705" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J705" s="33"/>
     </row>
-    <row r="706" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="706" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J706" s="33"/>
     </row>
-    <row r="707" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="707" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J707" s="33"/>
     </row>
-    <row r="708" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="708" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J708" s="33"/>
     </row>
-    <row r="709" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="709" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J709" s="33"/>
     </row>
-    <row r="710" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="710" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J710" s="33"/>
     </row>
-    <row r="711" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="711" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J711" s="33"/>
     </row>
-    <row r="712" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="712" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J712" s="33"/>
     </row>
-    <row r="713" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="713" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J713" s="33"/>
     </row>
-    <row r="714" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="714" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J714" s="33"/>
     </row>
-    <row r="715" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="715" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J715" s="33"/>
     </row>
-    <row r="716" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="716" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J716" s="33"/>
     </row>
-    <row r="717" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="717" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J717" s="33"/>
     </row>
-    <row r="718" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="718" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J718" s="33"/>
     </row>
-    <row r="719" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="719" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J719" s="33"/>
     </row>
-    <row r="720" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="720" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J720" s="33"/>
     </row>
-    <row r="721" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="721" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J721" s="33"/>
     </row>
-    <row r="722" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="722" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J722" s="33"/>
     </row>
-    <row r="723" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="723" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J723" s="33"/>
     </row>
-    <row r="724" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="724" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J724" s="33"/>
     </row>
-    <row r="725" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="725" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J725" s="33"/>
     </row>
-    <row r="726" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="726" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J726" s="33"/>
     </row>
-    <row r="727" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="727" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J727" s="33"/>
     </row>
-    <row r="728" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="728" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J728" s="33"/>
     </row>
-    <row r="729" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="729" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J729" s="33"/>
     </row>
-    <row r="730" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="730" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J730" s="33"/>
     </row>
-    <row r="731" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="731" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J731" s="33"/>
     </row>
-    <row r="732" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="732" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J732" s="33"/>
     </row>
-    <row r="733" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="733" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J733" s="33"/>
     </row>
-    <row r="734" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="734" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J734" s="33"/>
     </row>
-    <row r="735" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="735" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J735" s="33"/>
     </row>
-    <row r="736" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="736" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J736" s="33"/>
     </row>
-    <row r="737" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="737" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J737" s="33"/>
     </row>
-    <row r="738" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="738" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J738" s="33"/>
     </row>
-    <row r="739" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="739" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J739" s="33"/>
     </row>
-    <row r="740" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="740" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J740" s="33"/>
     </row>
-    <row r="741" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="741" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J741" s="33"/>
     </row>
-    <row r="742" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="742" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J742" s="33"/>
     </row>
-    <row r="743" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="743" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J743" s="33"/>
     </row>
-    <row r="744" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="744" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J744" s="33"/>
     </row>
-    <row r="745" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="745" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J745" s="33"/>
     </row>
-    <row r="746" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="746" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J746" s="33"/>
     </row>
-    <row r="747" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="747" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J747" s="33"/>
     </row>
-    <row r="748" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="748" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J748" s="33"/>
     </row>
-    <row r="749" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="749" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J749" s="33"/>
     </row>
-    <row r="750" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="750" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J750" s="33"/>
     </row>
-    <row r="751" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="751" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J751" s="33"/>
     </row>
-    <row r="752" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="752" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J752" s="33"/>
     </row>
-    <row r="753" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="753" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J753" s="33"/>
     </row>
-    <row r="754" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="754" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J754" s="33"/>
     </row>
-    <row r="755" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="755" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J755" s="33"/>
     </row>
-    <row r="756" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="756" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J756" s="33"/>
     </row>
-    <row r="757" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="757" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J757" s="33"/>
     </row>
-    <row r="758" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="758" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J758" s="33"/>
     </row>
-    <row r="759" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J759" s="33"/>
     </row>
-    <row r="760" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J760" s="33"/>
     </row>
-    <row r="761" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="761" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J761" s="33"/>
     </row>
-    <row r="762" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J762" s="33"/>
     </row>
-    <row r="763" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J763" s="33"/>
     </row>
-    <row r="764" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J764" s="33"/>
     </row>
-    <row r="765" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="765" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J765" s="33"/>
     </row>
-    <row r="766" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="766" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J766" s="33"/>
     </row>
-    <row r="767" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="767" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J767" s="33"/>
     </row>
-    <row r="768" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J768" s="33"/>
     </row>
-    <row r="769" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="769" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J769" s="33"/>
     </row>
-    <row r="770" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="770" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J770" s="33"/>
     </row>
-    <row r="771" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="771" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J771" s="33"/>
     </row>
-    <row r="772" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="772" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J772" s="33"/>
     </row>
-    <row r="773" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="773" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J773" s="33"/>
     </row>
-    <row r="774" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="774" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J774" s="33"/>
     </row>
-    <row r="775" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="775" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J775" s="33"/>
     </row>
-    <row r="776" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="776" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J776" s="33"/>
     </row>
-    <row r="777" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="777" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J777" s="33"/>
     </row>
-    <row r="778" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="778" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J778" s="33"/>
     </row>
-    <row r="779" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="779" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J779" s="33"/>
     </row>
-    <row r="780" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="780" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J780" s="33"/>
     </row>
-    <row r="781" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="781" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J781" s="33"/>
     </row>
-    <row r="782" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="782" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J782" s="33"/>
     </row>
-    <row r="783" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="783" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J783" s="33"/>
     </row>
-    <row r="784" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="784" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J784" s="33"/>
     </row>
-    <row r="785" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="785" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J785" s="33"/>
     </row>
-    <row r="786" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="786" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J786" s="33"/>
     </row>
-    <row r="787" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="787" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J787" s="33"/>
     </row>
-    <row r="788" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="788" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J788" s="33"/>
     </row>
-    <row r="789" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="789" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J789" s="33"/>
     </row>
-    <row r="790" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="790" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J790" s="33"/>
     </row>
-    <row r="791" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="791" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J791" s="33"/>
     </row>
-    <row r="792" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="792" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J792" s="33"/>
     </row>
-    <row r="793" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="793" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J793" s="33"/>
     </row>
-    <row r="794" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="794" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J794" s="33"/>
     </row>
-    <row r="795" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="795" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J795" s="33"/>
     </row>
-    <row r="796" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="796" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J796" s="33"/>
     </row>
-    <row r="797" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="797" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J797" s="33"/>
     </row>
-    <row r="798" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="798" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J798" s="33"/>
     </row>
-    <row r="799" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="799" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J799" s="33"/>
     </row>
-    <row r="800" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="800" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J800" s="33"/>
     </row>
-    <row r="801" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="801" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J801" s="33"/>
     </row>
-    <row r="802" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="802" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J802" s="33"/>
     </row>
-    <row r="803" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="803" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J803" s="33"/>
     </row>
-    <row r="804" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="804" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J804" s="33"/>
     </row>
-    <row r="805" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="805" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J805" s="33"/>
     </row>
-    <row r="806" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="806" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J806" s="33"/>
     </row>
-    <row r="807" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="807" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J807" s="33"/>
     </row>
-    <row r="808" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="808" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J808" s="33"/>
     </row>
-    <row r="809" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="809" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J809" s="33"/>
     </row>
-    <row r="810" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="810" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J810" s="33"/>
     </row>
-    <row r="811" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="811" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J811" s="33"/>
     </row>
-    <row r="812" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="812" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J812" s="33"/>
     </row>
-    <row r="813" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="813" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J813" s="33"/>
     </row>
-    <row r="814" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="814" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J814" s="33"/>
     </row>
-    <row r="815" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="815" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J815" s="33"/>
     </row>
-    <row r="816" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="816" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J816" s="33"/>
     </row>
-    <row r="817" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="817" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J817" s="33"/>
     </row>
-    <row r="818" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="818" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J818" s="33"/>
     </row>
-    <row r="819" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="819" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J819" s="33"/>
     </row>
-    <row r="820" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="820" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J820" s="33"/>
     </row>
-    <row r="821" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="821" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J821" s="33"/>
     </row>
-    <row r="822" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="822" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J822" s="33"/>
     </row>
-    <row r="823" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="823" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J823" s="33"/>
     </row>
-    <row r="824" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="824" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J824" s="33"/>
     </row>
-    <row r="825" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="825" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J825" s="33"/>
     </row>
-    <row r="826" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="826" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J826" s="33"/>
     </row>
-    <row r="827" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="827" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J827" s="33"/>
     </row>
-    <row r="828" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="828" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J828" s="33"/>
     </row>
-    <row r="829" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="829" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J829" s="33"/>
     </row>
-    <row r="830" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="830" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J830" s="33"/>
     </row>
-    <row r="831" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="831" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J831" s="33"/>
     </row>
-    <row r="832" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="832" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J832" s="33"/>
     </row>
-    <row r="833" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="833" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J833" s="33"/>
     </row>
-    <row r="834" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="834" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J834" s="33"/>
     </row>
-    <row r="835" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="835" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J835" s="33"/>
     </row>
-    <row r="836" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="836" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J836" s="33"/>
     </row>
-    <row r="837" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="837" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J837" s="33"/>
     </row>
-    <row r="838" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="838" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J838" s="33"/>
     </row>
-    <row r="839" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="839" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J839" s="33"/>
     </row>
-    <row r="840" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="840" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J840" s="33"/>
     </row>
-    <row r="841" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="841" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J841" s="33"/>
     </row>
-    <row r="842" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="842" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J842" s="33"/>
     </row>
-    <row r="843" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="843" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J843" s="33"/>
     </row>
-    <row r="844" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="844" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J844" s="33"/>
     </row>
-    <row r="845" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="845" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J845" s="33"/>
     </row>
-    <row r="846" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="846" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J846" s="33"/>
     </row>
-    <row r="847" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="847" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J847" s="33"/>
     </row>
-    <row r="848" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="848" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J848" s="33"/>
     </row>
-    <row r="849" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="849" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J849" s="33"/>
     </row>
-    <row r="850" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="850" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J850" s="33"/>
     </row>
-    <row r="851" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="851" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J851" s="33"/>
     </row>
-    <row r="852" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="852" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J852" s="33"/>
     </row>
-    <row r="853" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="853" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J853" s="33"/>
     </row>
-    <row r="854" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="854" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J854" s="33"/>
     </row>
-    <row r="855" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="855" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J855" s="33"/>
     </row>
-    <row r="856" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="856" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J856" s="33"/>
     </row>
-    <row r="857" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="857" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J857" s="33"/>
     </row>
-    <row r="858" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="858" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J858" s="33"/>
     </row>
-    <row r="859" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="859" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J859" s="33"/>
     </row>
-    <row r="860" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="860" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J860" s="33"/>
     </row>
-    <row r="861" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="861" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J861" s="33"/>
     </row>
-    <row r="862" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="862" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J862" s="33"/>
     </row>
-    <row r="863" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="863" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J863" s="33"/>
     </row>
-    <row r="864" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="864" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J864" s="33"/>
     </row>
-    <row r="865" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="865" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J865" s="33"/>
     </row>
-    <row r="866" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="866" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J866" s="33"/>
     </row>
-    <row r="867" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="867" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J867" s="33"/>
     </row>
-    <row r="868" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="868" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J868" s="33"/>
     </row>
-    <row r="869" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="869" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J869" s="33"/>
     </row>
-    <row r="870" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="870" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J870" s="33"/>
     </row>
-    <row r="871" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="871" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J871" s="33"/>
     </row>
-    <row r="872" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="872" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J872" s="33"/>
     </row>
-    <row r="873" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="873" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J873" s="33"/>
     </row>
-    <row r="874" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="874" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J874" s="33"/>
     </row>
-    <row r="875" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="875" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J875" s="33"/>
     </row>
-    <row r="876" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="876" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J876" s="33"/>
     </row>
-    <row r="877" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="877" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J877" s="33"/>
     </row>
-    <row r="878" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="878" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J878" s="33"/>
     </row>
   </sheetData>
